--- a/ResultadoEleicoesDistritos/LEIRIA_NAZARÉ.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_NAZARÉ.xlsx
@@ -597,64 +597,64 @@
         <v>4230</v>
       </c>
       <c r="H2" t="n">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="I2" t="n">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="J2" t="n">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N2" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="T2" t="n">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="U2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" t="n">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2677</v>
+        <v>2703</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
